--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,1246 +424,951 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>File Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>序号</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Length(X_diff)</t>
+          <t>X_diff</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NCX_10</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>NCX_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1077</v>
       </c>
       <c r="C2" t="n">
-        <v>4939</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4935</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NCX_10</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>NCX_1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2462</v>
       </c>
       <c r="C3" t="n">
-        <v>7079</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2140</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NCX_10</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>NCX_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3847</v>
       </c>
       <c r="C4" t="n">
-        <v>11994</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4915</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NCX_11</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>NCX_1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7912</v>
       </c>
       <c r="C5" t="n">
-        <v>3334</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3330</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NCX_11</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>NCX_1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11977</v>
       </c>
       <c r="C6" t="n">
-        <v>7499</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4165</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NCX_11</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>NCX_2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1089</v>
       </c>
       <c r="C7" t="n">
-        <v>9729</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2230</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NCX_11</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>NCX_2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5454</v>
       </c>
       <c r="C8" t="n">
-        <v>11959</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2230</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NCX_12</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>NCX_2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9819</v>
       </c>
       <c r="C9" t="n">
-        <v>4044</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4040</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NCX_12</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>NCX_2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11959</v>
       </c>
       <c r="C10" t="n">
-        <v>5404</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1360</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NCX_12</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>NCX_3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4694</v>
       </c>
       <c r="C11" t="n">
-        <v>10304</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4900</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NCX_12</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>NCX_3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9384</v>
       </c>
       <c r="C12" t="n">
-        <v>11992</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1688</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NCX_13</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>NCX_3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11874</v>
       </c>
       <c r="C13" t="n">
-        <v>3006</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3002</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NCX_13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>NCX_4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5239</v>
       </c>
       <c r="C14" t="n">
-        <v>7709</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4703</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NCX_13</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>NCX_4</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10474</v>
       </c>
       <c r="C15" t="n">
-        <v>11039</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3330</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NCX_13</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>NCX_4</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11834</v>
       </c>
       <c r="C16" t="n">
-        <v>11995</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
-      </c>
-      <c r="E16" t="n">
-        <v>956</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NCX_14</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>NCX_5</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7434</v>
       </c>
       <c r="C17" t="n">
-        <v>738</v>
+        <v>60</v>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
-      </c>
-      <c r="E17" t="n">
-        <v>734</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NCX_14</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>NCX_5</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9437</v>
       </c>
       <c r="C18" t="n">
-        <v>2428</v>
+        <v>60</v>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1690</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NCX_14</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>NCX_5</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10777</v>
       </c>
       <c r="C19" t="n">
-        <v>4918</v>
+        <v>60</v>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2490</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NCX_14</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>NCX_5</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11862</v>
       </c>
       <c r="C20" t="n">
-        <v>9818</v>
+        <v>60</v>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4900</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NCX_14</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>NCX_6</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1344</v>
       </c>
       <c r="C21" t="n">
-        <v>11992</v>
+        <v>60</v>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2174</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NCX_15</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>NCX_6</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4134</v>
       </c>
       <c r="C22" t="n">
-        <v>1160</v>
+        <v>60</v>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1156</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NCX_15</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>NCX_6</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6924</v>
       </c>
       <c r="C23" t="n">
-        <v>4490</v>
+        <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3330</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NCX_1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>NCX_6</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>11884</v>
       </c>
       <c r="C24" t="n">
-        <v>1077</v>
+        <v>60</v>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1073</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NCX_1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>NCX_7</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4044</v>
       </c>
       <c r="C25" t="n">
-        <v>2462</v>
+        <v>60</v>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1385</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NCX_1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>NCX_7</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8959</v>
       </c>
       <c r="C26" t="n">
-        <v>3847</v>
+        <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>60</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1385</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NCX_1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>NCX_7</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11994</v>
       </c>
       <c r="C27" t="n">
-        <v>7912</v>
+        <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4065</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NCX_1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>NCX_8</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2007</v>
       </c>
       <c r="C28" t="n">
-        <v>11977</v>
+        <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>60</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4065</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NCX_2</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>NCX_8</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6172</v>
       </c>
       <c r="C29" t="n">
-        <v>1089</v>
+        <v>60</v>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1085</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NCX_2</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>NCX_8</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9220</v>
       </c>
       <c r="C30" t="n">
-        <v>5454</v>
+        <v>60</v>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4365</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NCX_2</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>NCX_8</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11950</v>
       </c>
       <c r="C31" t="n">
-        <v>9819</v>
+        <v>60</v>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4365</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NCX_2</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>NCX_9</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1364</v>
       </c>
       <c r="C32" t="n">
-        <v>11959</v>
+        <v>60</v>
       </c>
       <c r="D32" t="n">
-        <v>60</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2140</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NCX_3</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>NCX_9</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2724</v>
       </c>
       <c r="C33" t="n">
-        <v>4694</v>
+        <v>60</v>
       </c>
       <c r="D33" t="n">
-        <v>60</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4690</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NCX_3</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>NCX_9</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3796</v>
       </c>
       <c r="C34" t="n">
-        <v>9384</v>
+        <v>60</v>
       </c>
       <c r="D34" t="n">
-        <v>60</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4690</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NCX_3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>NCX_9</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6526</v>
       </c>
       <c r="C35" t="n">
-        <v>11874</v>
+        <v>60</v>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2490</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NCX_4</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>NCX_9</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9256</v>
       </c>
       <c r="C36" t="n">
-        <v>5239</v>
+        <v>60</v>
       </c>
       <c r="D36" t="n">
-        <v>60</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5235</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NCX_4</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>NCX_9</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11986</v>
       </c>
       <c r="C37" t="n">
-        <v>10474</v>
+        <v>60</v>
       </c>
       <c r="D37" t="n">
-        <v>60</v>
-      </c>
-      <c r="E37" t="n">
-        <v>5235</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NCX_4</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>NCX_10</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4939</v>
       </c>
       <c r="C38" t="n">
-        <v>11834</v>
+        <v>60</v>
       </c>
       <c r="D38" t="n">
-        <v>60</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1360</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NCX_5</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>NCX_10</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7079</v>
       </c>
       <c r="C39" t="n">
-        <v>7434</v>
+        <v>60</v>
       </c>
       <c r="D39" t="n">
-        <v>60</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7430</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NCX_5</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>NCX_10</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>11994</v>
       </c>
       <c r="C40" t="n">
-        <v>9437</v>
+        <v>60</v>
       </c>
       <c r="D40" t="n">
-        <v>60</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2003</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NCX_5</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>NCX_11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3334</v>
       </c>
       <c r="C41" t="n">
-        <v>10777</v>
+        <v>60</v>
       </c>
       <c r="D41" t="n">
-        <v>60</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1340</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NCX_5</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>NCX_11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7499</v>
       </c>
       <c r="C42" t="n">
-        <v>11862</v>
+        <v>60</v>
       </c>
       <c r="D42" t="n">
-        <v>60</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1085</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NCX_6</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>NCX_11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9729</v>
       </c>
       <c r="C43" t="n">
-        <v>1344</v>
+        <v>60</v>
       </c>
       <c r="D43" t="n">
-        <v>60</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1340</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NCX_6</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>NCX_11</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11959</v>
       </c>
       <c r="C44" t="n">
-        <v>4134</v>
+        <v>60</v>
       </c>
       <c r="D44" t="n">
-        <v>60</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2790</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NCX_6</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>NCX_12</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4044</v>
       </c>
       <c r="C45" t="n">
-        <v>6924</v>
+        <v>60</v>
       </c>
       <c r="D45" t="n">
-        <v>60</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2790</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NCX_6</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>NCX_12</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5404</v>
       </c>
       <c r="C46" t="n">
-        <v>11884</v>
+        <v>60</v>
       </c>
       <c r="D46" t="n">
-        <v>60</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4960</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NCX_7</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>NCX_12</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10304</v>
       </c>
       <c r="C47" t="n">
-        <v>4044</v>
+        <v>60</v>
       </c>
       <c r="D47" t="n">
-        <v>60</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4040</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NCX_7</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>NCX_12</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>11992</v>
       </c>
       <c r="C48" t="n">
-        <v>8959</v>
+        <v>60</v>
       </c>
       <c r="D48" t="n">
-        <v>60</v>
-      </c>
-      <c r="E48" t="n">
-        <v>4915</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NCX_7</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>NCX_13</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3006</v>
       </c>
       <c r="C49" t="n">
-        <v>11994</v>
+        <v>60</v>
       </c>
       <c r="D49" t="n">
-        <v>60</v>
-      </c>
-      <c r="E49" t="n">
-        <v>3035</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NCX_8</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>NCX_13</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7709</v>
       </c>
       <c r="C50" t="n">
-        <v>2007</v>
+        <v>60</v>
       </c>
       <c r="D50" t="n">
-        <v>60</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2003</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NCX_8</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>NCX_13</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>11039</v>
       </c>
       <c r="C51" t="n">
-        <v>6172</v>
+        <v>60</v>
       </c>
       <c r="D51" t="n">
-        <v>60</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4165</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NCX_8</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>NCX_13</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11995</v>
       </c>
       <c r="C52" t="n">
-        <v>9220</v>
+        <v>60</v>
       </c>
       <c r="D52" t="n">
-        <v>60</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3048</v>
+        <v>956</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NCX_8</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>NCX_14</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>738</v>
       </c>
       <c r="C53" t="n">
-        <v>11950</v>
+        <v>60</v>
       </c>
       <c r="D53" t="n">
-        <v>60</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NCX_9</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>NCX_14</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2428</v>
       </c>
       <c r="C54" t="n">
-        <v>1364</v>
+        <v>60</v>
       </c>
       <c r="D54" t="n">
-        <v>60</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1360</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NCX_9</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>NCX_14</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4918</v>
       </c>
       <c r="C55" t="n">
-        <v>2724</v>
+        <v>60</v>
       </c>
       <c r="D55" t="n">
-        <v>60</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1360</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NCX_9</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>NCX_14</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>9818</v>
       </c>
       <c r="C56" t="n">
-        <v>3796</v>
+        <v>60</v>
       </c>
       <c r="D56" t="n">
-        <v>60</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1072</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NCX_9</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>NCX_14</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>11992</v>
       </c>
       <c r="C57" t="n">
-        <v>6526</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>60</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2730</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NCX_9</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>NCX_15</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1160</v>
       </c>
       <c r="C58" t="n">
-        <v>9256</v>
+        <v>60</v>
       </c>
       <c r="D58" t="n">
-        <v>60</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2730</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NCX_9</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>NCX_15</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>4490</v>
       </c>
       <c r="C59" t="n">
-        <v>11986</v>
+        <v>60</v>
       </c>
       <c r="D59" t="n">
-        <v>60</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2730</v>
+        <v>3330</v>
       </c>
     </row>
   </sheetData>
